--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.05583833333333</v>
+        <v>32.50235</v>
       </c>
       <c r="H2">
-        <v>111.167515</v>
+        <v>97.50704999999999</v>
       </c>
       <c r="I2">
-        <v>0.008431126118266585</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="J2">
-        <v>0.008431126118266586</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N2">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q2">
-        <v>249.9318591689594</v>
+        <v>204.9548137381</v>
       </c>
       <c r="R2">
-        <v>2249.386732520635</v>
+        <v>1844.5933236429</v>
       </c>
       <c r="S2">
-        <v>8.846553596989779E-05</v>
+        <v>5.856281048212388E-05</v>
       </c>
       <c r="T2">
-        <v>8.846553596989782E-05</v>
+        <v>5.856281048212387E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.05583833333333</v>
+        <v>32.50235</v>
       </c>
       <c r="H3">
-        <v>111.167515</v>
+        <v>97.50704999999999</v>
       </c>
       <c r="I3">
-        <v>0.008431126118266585</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="J3">
-        <v>0.008431126118266586</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P3">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q3">
-        <v>6763.864511255357</v>
+        <v>5932.708625286818</v>
       </c>
       <c r="R3">
-        <v>60874.78060129821</v>
+        <v>53394.37762758135</v>
       </c>
       <c r="S3">
-        <v>0.002394128148390499</v>
+        <v>0.001695183853121411</v>
       </c>
       <c r="T3">
-        <v>0.0023941281483905</v>
+        <v>0.001695183853121411</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.05583833333333</v>
+        <v>32.50235</v>
       </c>
       <c r="H4">
-        <v>111.167515</v>
+        <v>97.50704999999999</v>
       </c>
       <c r="I4">
-        <v>0.008431126118266585</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="J4">
-        <v>0.008431126118266586</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N4">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q4">
-        <v>9231.828997048184</v>
+        <v>4140.682154023551</v>
       </c>
       <c r="R4">
-        <v>83086.46097343364</v>
+        <v>37266.13938621195</v>
       </c>
       <c r="S4">
-        <v>0.003267685452034369</v>
+        <v>0.001183138760344793</v>
       </c>
       <c r="T4">
-        <v>0.00326768545203437</v>
+        <v>0.001183138760344793</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.05583833333333</v>
+        <v>32.50235</v>
       </c>
       <c r="H5">
-        <v>111.167515</v>
+        <v>97.50704999999999</v>
       </c>
       <c r="I5">
-        <v>0.008431126118266585</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="J5">
-        <v>0.008431126118266586</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N5">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q5">
-        <v>647.0112912766511</v>
+        <v>631.3256897364666</v>
       </c>
       <c r="R5">
-        <v>5823.101621489861</v>
+        <v>5681.931207628199</v>
       </c>
       <c r="S5">
-        <v>0.00022901522379614</v>
+        <v>0.0001803919900499507</v>
       </c>
       <c r="T5">
-        <v>0.0002290152237961401</v>
+        <v>0.0001803919900499507</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>37.05583833333333</v>
+        <v>32.50235</v>
       </c>
       <c r="H6">
-        <v>111.167515</v>
+        <v>97.50704999999999</v>
       </c>
       <c r="I6">
-        <v>0.008431126118266585</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="J6">
-        <v>0.008431126118266586</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N6">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q6">
-        <v>6926.888114642377</v>
+        <v>4203.313001554834</v>
       </c>
       <c r="R6">
-        <v>62341.99303178139</v>
+        <v>37829.8170139935</v>
       </c>
       <c r="S6">
-        <v>0.002451831758075678</v>
+        <v>0.001201034599858943</v>
       </c>
       <c r="T6">
-        <v>0.002451831758075679</v>
+        <v>0.001201034599858942</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>152.697487</v>
       </c>
       <c r="I7">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="J7">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N7">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q7">
-        <v>343.3014295258648</v>
+        <v>320.9622792030006</v>
       </c>
       <c r="R7">
-        <v>3089.712865732783</v>
+        <v>2888.660512827006</v>
       </c>
       <c r="S7">
-        <v>0.0001215145002450716</v>
+        <v>9.171023010415733E-05</v>
       </c>
       <c r="T7">
-        <v>0.0001215145002450716</v>
+        <v>9.171023010415731E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>152.697487</v>
       </c>
       <c r="I8">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="J8">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P8">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q8">
         <v>9290.709730060766</v>
@@ -948,10 +948,10 @@
         <v>83616.3875705469</v>
       </c>
       <c r="S8">
-        <v>0.003288526795037132</v>
+        <v>0.002654683065220583</v>
       </c>
       <c r="T8">
-        <v>0.003288526795037133</v>
+        <v>0.002654683065220583</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>152.697487</v>
       </c>
       <c r="I9">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="J9">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N9">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q9">
-        <v>12680.65664922876</v>
+        <v>6484.36968798813</v>
       </c>
       <c r="R9">
-        <v>114125.9098430588</v>
+        <v>58359.32719189317</v>
       </c>
       <c r="S9">
-        <v>0.004488427728479018</v>
+        <v>0.001852812852782903</v>
       </c>
       <c r="T9">
-        <v>0.004488427728479018</v>
+        <v>0.001852812852782903</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>152.697487</v>
       </c>
       <c r="I10">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="J10">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N10">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q10">
-        <v>888.7218378369765</v>
+        <v>988.6653970282164</v>
       </c>
       <c r="R10">
-        <v>7998.496540532788</v>
+        <v>8897.988573253948</v>
       </c>
       <c r="S10">
-        <v>0.0003145707553003517</v>
+        <v>0.0002824965328717921</v>
       </c>
       <c r="T10">
-        <v>0.0003145707553003518</v>
+        <v>0.0002824965328717921</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>152.697487</v>
       </c>
       <c r="I11">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="J11">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N11">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q11">
-        <v>9514.635708426682</v>
+        <v>6582.450524468232</v>
       </c>
       <c r="R11">
-        <v>85631.72137584013</v>
+        <v>59242.05472021409</v>
       </c>
       <c r="S11">
-        <v>0.003367787325325641</v>
+        <v>0.001880838002980411</v>
       </c>
       <c r="T11">
-        <v>0.003367787325325641</v>
+        <v>0.001880838002980411</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2007.446289</v>
+        <v>3274.382486666667</v>
       </c>
       <c r="H12">
-        <v>6022.338867</v>
+        <v>9823.14746</v>
       </c>
       <c r="I12">
-        <v>0.4567440273772037</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="J12">
-        <v>0.4567440273772037</v>
+        <v>0.435039473457653</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N12">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q12">
-        <v>13539.69592263347</v>
+        <v>20647.75170601705</v>
       </c>
       <c r="R12">
-        <v>121857.2633037012</v>
+        <v>185829.7653541535</v>
       </c>
       <c r="S12">
-        <v>0.004792492084234338</v>
+        <v>0.005899790046339589</v>
       </c>
       <c r="T12">
-        <v>0.004792492084234339</v>
+        <v>0.005899790046339588</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2007.446289</v>
+        <v>3274.382486666667</v>
       </c>
       <c r="H13">
-        <v>6022.338867</v>
+        <v>9823.14746</v>
       </c>
       <c r="I13">
-        <v>0.4567440273772037</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="J13">
-        <v>0.4567440273772037</v>
+        <v>0.435039473457653</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P13">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q13">
-        <v>366422.5483249769</v>
+        <v>597678.5438940702</v>
       </c>
       <c r="R13">
-        <v>3297802.934924792</v>
+        <v>5379106.895046631</v>
       </c>
       <c r="S13">
-        <v>0.1296984195484701</v>
+        <v>0.1707778151530849</v>
       </c>
       <c r="T13">
-        <v>0.1296984195484702</v>
+        <v>0.1707778151530849</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2007.446289</v>
+        <v>3274.382486666667</v>
       </c>
       <c r="H14">
-        <v>6022.338867</v>
+        <v>9823.14746</v>
       </c>
       <c r="I14">
-        <v>0.4567440273772037</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="J14">
-        <v>0.4567440273772037</v>
+        <v>0.435039473457653</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N14">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q14">
-        <v>500120.944346205</v>
+        <v>417144.518103704</v>
       </c>
       <c r="R14">
-        <v>4501088.499115844</v>
+        <v>3754300.662933336</v>
       </c>
       <c r="S14">
-        <v>0.1770221193027212</v>
+        <v>0.1191928840889813</v>
       </c>
       <c r="T14">
-        <v>0.1770221193027212</v>
+        <v>0.1191928840889813</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2007.446289</v>
+        <v>3274.382486666667</v>
       </c>
       <c r="H15">
-        <v>6022.338867</v>
+        <v>9823.14746</v>
       </c>
       <c r="I15">
-        <v>0.4567440273772037</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="J15">
-        <v>0.4567440273772037</v>
+        <v>0.435039473457653</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N15">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q15">
-        <v>35050.89815890222</v>
+        <v>63601.60978685665</v>
       </c>
       <c r="R15">
-        <v>315458.08343012</v>
+        <v>572414.4880817098</v>
       </c>
       <c r="S15">
-        <v>0.01240656754270524</v>
+        <v>0.018173220488811</v>
       </c>
       <c r="T15">
-        <v>0.01240656754270524</v>
+        <v>0.018173220488811</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2007.446289</v>
+        <v>3274.382486666667</v>
       </c>
       <c r="H16">
-        <v>6022.338867</v>
+        <v>9823.14746</v>
       </c>
       <c r="I16">
-        <v>0.4567440273772037</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="J16">
-        <v>0.4567440273772037</v>
+        <v>0.435039473457653</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N16">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q16">
-        <v>375254.1155585887</v>
+        <v>423454.1341862803</v>
       </c>
       <c r="R16">
-        <v>3377287.040027298</v>
+        <v>3811087.207676522</v>
       </c>
       <c r="S16">
-        <v>0.1328244288990727</v>
+        <v>0.1209957636804363</v>
       </c>
       <c r="T16">
-        <v>0.1328244288990727</v>
+        <v>0.1209957636804363</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.448603666666666</v>
+        <v>7.278837333333333</v>
       </c>
       <c r="H17">
-        <v>19.345811</v>
+        <v>21.836512</v>
       </c>
       <c r="I17">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="J17">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N17">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q17">
-        <v>43.49413144983322</v>
+        <v>45.89922728305066</v>
       </c>
       <c r="R17">
-        <v>391.447183048499</v>
+        <v>413.093045547456</v>
       </c>
       <c r="S17">
-        <v>1.53951227468505E-05</v>
+        <v>1.311502618371311E-05</v>
       </c>
       <c r="T17">
-        <v>1.53951227468505E-05</v>
+        <v>1.311502618371311E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.448603666666666</v>
+        <v>7.278837333333333</v>
       </c>
       <c r="H18">
-        <v>19.345811</v>
+        <v>21.836512</v>
       </c>
       <c r="I18">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="J18">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P18">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q18">
-        <v>1177.074475977569</v>
+        <v>1328.618423884007</v>
       </c>
       <c r="R18">
-        <v>10593.67028379812</v>
+        <v>11957.56581495606</v>
       </c>
       <c r="S18">
-        <v>0.0004166356571750529</v>
+        <v>0.0003796330885909474</v>
       </c>
       <c r="T18">
-        <v>0.000416635657175053</v>
+        <v>0.0003796330885909473</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.448603666666666</v>
+        <v>7.278837333333333</v>
       </c>
       <c r="H19">
-        <v>19.345811</v>
+        <v>21.836512</v>
       </c>
       <c r="I19">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="J19">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N19">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q19">
-        <v>1606.559424857286</v>
+        <v>927.2976215004053</v>
       </c>
       <c r="R19">
-        <v>14459.03482371557</v>
+        <v>8345.678593503648</v>
       </c>
       <c r="S19">
-        <v>0.000568655556998881</v>
+        <v>0.0002649615975248374</v>
       </c>
       <c r="T19">
-        <v>0.0005686555569988811</v>
+        <v>0.0002649615975248374</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.448603666666666</v>
+        <v>7.278837333333333</v>
       </c>
       <c r="H20">
-        <v>19.345811</v>
+        <v>21.836512</v>
       </c>
       <c r="I20">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="J20">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N20">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q20">
-        <v>112.5954660037516</v>
+        <v>141.3841460677831</v>
       </c>
       <c r="R20">
-        <v>1013.359194033764</v>
+        <v>1272.457314610048</v>
       </c>
       <c r="S20">
-        <v>3.98541357669354E-05</v>
+        <v>4.039843124604456E-05</v>
       </c>
       <c r="T20">
-        <v>3.98541357669354E-05</v>
+        <v>4.039843124604455E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.448603666666666</v>
+        <v>7.278837333333333</v>
       </c>
       <c r="H21">
-        <v>19.345811</v>
+        <v>21.836512</v>
       </c>
       <c r="I21">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="J21">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N21">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q21">
-        <v>1205.444488743117</v>
+        <v>941.3236765773156</v>
       </c>
       <c r="R21">
-        <v>10849.00039868805</v>
+        <v>8471.913089195839</v>
       </c>
       <c r="S21">
-        <v>0.0004266774677434302</v>
+        <v>0.0002689693355735303</v>
       </c>
       <c r="T21">
-        <v>0.0004266774677434302</v>
+        <v>0.0002689693355735302</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2293.273345666667</v>
+        <v>4161.570231333333</v>
       </c>
       <c r="H22">
-        <v>6879.820037</v>
+        <v>12484.710694</v>
       </c>
       <c r="I22">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="J22">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N22">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q22">
-        <v>15467.52405678286</v>
+        <v>26242.22099697237</v>
       </c>
       <c r="R22">
-        <v>139207.7165110457</v>
+        <v>236179.9889727514</v>
       </c>
       <c r="S22">
-        <v>0.005474863470229114</v>
+        <v>0.007498327006066405</v>
       </c>
       <c r="T22">
-        <v>0.005474863470229115</v>
+        <v>0.007498327006066404</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2293.273345666667</v>
+        <v>4161.570231333333</v>
       </c>
       <c r="H23">
-        <v>6879.820037</v>
+        <v>12484.710694</v>
       </c>
       <c r="I23">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="J23">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P23">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q23">
-        <v>418595.0418347286</v>
+        <v>759618.4154735926</v>
       </c>
       <c r="R23">
-        <v>3767355.376512557</v>
+        <v>6836565.739262332</v>
       </c>
       <c r="S23">
-        <v>0.1481653233540632</v>
+        <v>0.2170497413198431</v>
       </c>
       <c r="T23">
-        <v>0.1481653233540632</v>
+        <v>0.2170497413198431</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2293.273345666667</v>
+        <v>4161.570231333333</v>
       </c>
       <c r="H24">
-        <v>6879.820037</v>
+        <v>12484.710694</v>
       </c>
       <c r="I24">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="J24">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N24">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q24">
-        <v>571329.8719688904</v>
+        <v>530169.0366880422</v>
       </c>
       <c r="R24">
-        <v>5141968.847720014</v>
+        <v>4771521.330192381</v>
       </c>
       <c r="S24">
-        <v>0.2022271330569857</v>
+        <v>0.1514879707032727</v>
       </c>
       <c r="T24">
-        <v>0.2022271330569858</v>
+        <v>0.1514879707032727</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2293.273345666667</v>
+        <v>4161.570231333333</v>
       </c>
       <c r="H25">
-        <v>6879.820037</v>
+        <v>12484.710694</v>
       </c>
       <c r="I25">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="J25">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N25">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q25">
-        <v>40041.5647133099</v>
+        <v>80834.34572217897</v>
       </c>
       <c r="R25">
-        <v>360374.082419789</v>
+        <v>727509.1114996108</v>
       </c>
       <c r="S25">
-        <v>0.01417305698927176</v>
+        <v>0.02309722022447158</v>
       </c>
       <c r="T25">
-        <v>0.01417305698927177</v>
+        <v>0.02309722022447157</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2293.273345666667</v>
+        <v>4161.570231333333</v>
       </c>
       <c r="H26">
-        <v>6879.820037</v>
+        <v>12484.710694</v>
       </c>
       <c r="I26">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="J26">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N26">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q26">
-        <v>428684.077764748</v>
+        <v>538188.2313201032</v>
       </c>
       <c r="R26">
-        <v>3858156.699882731</v>
+        <v>4843694.081880929</v>
       </c>
       <c r="S26">
-        <v>0.1517364245891616</v>
+        <v>0.1537793371117571</v>
       </c>
       <c r="T26">
-        <v>0.1517364245891616</v>
+        <v>0.153779337111757</v>
       </c>
     </row>
   </sheetData>
